--- a/examples/output/table.xlsx
+++ b/examples/output/table.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,27 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -446,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,15 +461,15 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>リソースID</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr"/>
-      <c r="C2" s="1" t="inlineStr"/>
-      <c r="D2" s="1" t="inlineStr"/>
-      <c r="E2" s="1" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>Resource ID</t>
@@ -503,15 +482,15 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>言語</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr"/>
-      <c r="C3" s="1" t="inlineStr"/>
-      <c r="D3" s="1" t="inlineStr"/>
-      <c r="E3" s="1" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>eng</t>
@@ -524,15 +503,15 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>文字コード</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr"/>
-      <c r="C4" s="1" t="inlineStr"/>
-      <c r="D4" s="1" t="inlineStr"/>
-      <c r="E4" s="1" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>utf8</t>
@@ -545,15 +524,15 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>リリース日</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr"/>
-      <c r="C5" s="1" t="inlineStr"/>
-      <c r="D5" s="1" t="inlineStr"/>
-      <c r="E5" s="1" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>2019-02-28</t>
@@ -566,15 +545,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>メタデータ規格名</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr"/>
-      <c r="C6" s="1" t="inlineStr"/>
-      <c r="D6" s="1" t="inlineStr"/>
-      <c r="E6" s="1" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>GMD</t>
@@ -587,15 +566,15 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>メタデータ規格バージョン</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr"/>
-      <c r="C7" s="1" t="inlineStr"/>
-      <c r="D7" s="1" t="inlineStr"/>
-      <c r="E7" s="1" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>0.0.0</t>
@@ -608,19 +587,19 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>XML作成者</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>名前</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr"/>
-      <c r="D8" s="1" t="inlineStr"/>
-      <c r="E8" s="1" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>Taro Yamada</t>
@@ -633,15 +612,19 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>XML作成者</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>組織名</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr"/>
-      <c r="D9" s="1" t="inlineStr"/>
-      <c r="E9" s="1" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>Polar Environment Data Science Center (PEDSC), Joint-Support Center for Data Science Research, Research Organization of Information and Systems (ROIS-DS)</t>
@@ -654,32 +637,40 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>XML作成者</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>職名</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr"/>
-      <c r="D10" s="1" t="inlineStr"/>
-      <c r="E10" s="1" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>XML作成者</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>連絡先</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>電話番号</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr"/>
-      <c r="E11" s="1" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>123-4567</t>
@@ -692,19 +683,27 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>XML作成者</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>連絡先</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>住所</t>
         </is>
       </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>番地</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>1choume</t>
@@ -717,15 +716,27 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="n"/>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>XML作成者</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>連絡先</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>住所</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>市町村</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>hoge</t>
@@ -738,15 +749,27 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="n"/>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>XML作成者</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>連絡先</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>住所</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>都道府県</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>fuga</t>
@@ -759,15 +782,27 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n"/>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>XML作成者</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>連絡先</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>住所</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>郵便番号</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>123-4567</t>
@@ -780,15 +815,27 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="n"/>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>XML作成者</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>連絡先</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>住所</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>国</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>Japan</t>
@@ -801,15 +848,27 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="n"/>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>XML作成者</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>連絡先</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>住所</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>メールアドレス</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>hoge@hoge</t>
@@ -822,19 +881,27 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="n"/>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>オンライン情報</t>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>XML作成者</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>連絡先</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>オンライン</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>https://homepage</t>
@@ -847,15 +914,27 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="n"/>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>XML作成者</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>連絡先</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>オンライン</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>名前</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>hoge</t>
@@ -868,15 +947,27 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n"/>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>XML作成者</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>連絡先</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>オンライン</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>説明</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>hogehoge.</t>
@@ -889,23 +980,23 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>識別情報</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>引用情報</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>引用</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>タイトル</t>
         </is>
       </c>
-      <c r="D21" s="1" t="inlineStr"/>
-      <c r="E21" s="1" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
           <t>Specimen</t>
@@ -918,15 +1009,27 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>引用</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>作成日</t>
         </is>
       </c>
-      <c r="D22" s="1" t="inlineStr"/>
-      <c r="E22" s="1" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>日付</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
           <t>2019-02-28</t>
@@ -939,1001 +1042,1482 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>引用</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>作成日</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>コード</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>creation</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>creation</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>引用</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>公開日</t>
         </is>
       </c>
-      <c r="D23" s="1" t="inlineStr"/>
-      <c r="E23" s="1" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>日付</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
         <is>
           <t>2019-02-28</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>2019-02-28</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>引用</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>公開日</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>コード</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>publication</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>publication</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>引用</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>バージョン</t>
         </is>
       </c>
-      <c r="D24" s="1" t="inlineStr"/>
-      <c r="E24" s="1" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
         <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>1.00</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>引用</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="D25" s="1" t="inlineStr"/>
-      <c r="E25" s="1" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
         <is>
           <t>Resource ID</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Resource ID2</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>概要</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr"/>
-      <c r="D26" s="1" t="inlineStr"/>
-      <c r="E26" s="1" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
         <is>
           <t>hogehoge. fuga. piyo.</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>hogehoge. fuga. piyo. 2</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>管理者</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>名前</t>
         </is>
       </c>
-      <c r="D27" s="1" t="inlineStr"/>
-      <c r="E27" s="1" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
         <is>
           <t>Hanako Yamada</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Hanako Yamada2</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="n"/>
-      <c r="C28" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>管理者</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>組織名</t>
         </is>
       </c>
-      <c r="D28" s="1" t="inlineStr"/>
-      <c r="E28" s="1" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
         <is>
           <t>hoge</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>hoge</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="n"/>
-      <c r="C29" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>管理者</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>職名</t>
         </is>
       </c>
-      <c r="D29" s="1" t="inlineStr"/>
-      <c r="E29" s="1" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="n"/>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>管理者</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>役割</t>
         </is>
       </c>
-      <c r="D30" s="1" t="inlineStr"/>
-      <c r="E30" s="1" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
         <is>
           <t>pointOfContact</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>pointOfContact</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="n"/>
-      <c r="C31" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>管理者</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>連絡先</t>
         </is>
       </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>電話番号</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
         <is>
           <t>123-4567</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>123-4567</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="n"/>
-      <c r="C32" s="1" t="n"/>
-      <c r="D32" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>管理者</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>連絡先</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>住所</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>番地</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1choume</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>1choume</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="n"/>
-      <c r="C33" s="1" t="n"/>
-      <c r="D33" s="1" t="n"/>
-      <c r="E33" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>管理者</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>連絡先</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>住所</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>市町村</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>hoge</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>hoge</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="n"/>
-      <c r="C34" s="1" t="n"/>
-      <c r="D34" s="1" t="n"/>
-      <c r="E34" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>管理者</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>連絡先</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>住所</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>都道府県</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>fuga</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>fuga</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="n"/>
-      <c r="C35" s="1" t="n"/>
-      <c r="D35" s="1" t="n"/>
-      <c r="E35" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>管理者</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>連絡先</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>住所</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>郵便番号</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>123-4567</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>123-4567</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="n"/>
-      <c r="C36" s="1" t="n"/>
-      <c r="D36" s="1" t="n"/>
-      <c r="E36" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>管理者</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>連絡先</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>住所</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>国</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Japan</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Japan</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n"/>
-      <c r="B37" s="1" t="n"/>
-      <c r="C37" s="1" t="n"/>
-      <c r="D37" s="1" t="n"/>
-      <c r="E37" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>管理者</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>連絡先</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>住所</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>メールアドレス</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>hoge@hoge</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>hoge@hoge</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>分野</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>値</t>
         </is>
       </c>
-      <c r="D38" s="1" t="inlineStr"/>
-      <c r="E38" s="1" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
         <is>
           <t>Earth Science &gt; Biosphere  &gt; Ecosystems</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Solid Earth &gt; Rocks/Minerals &gt; Meteorites</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="n"/>
-      <c r="C39" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>分野</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>コード</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>discipline</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>discipline</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>分野</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>シソーラス</t>
         </is>
       </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>タイトル</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
         <is>
           <t>NASA / GCMD Science Keywords Version 8.6</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>NASA / GCMD Science Keywords Version 8.6</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="n"/>
-      <c r="C40" s="1" t="n"/>
-      <c r="D40" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>分野</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>シソーラス</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
         <is>
           <t>2018-03-15</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>2018-03-15</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>場所</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>値</t>
         </is>
       </c>
-      <c r="D41" s="1" t="inlineStr"/>
-      <c r="E41" s="1" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
         <is>
           <t>Continent &gt; Antarctica</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Continent &gt; Antarctica</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="n"/>
-      <c r="C42" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>場所</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>コード</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>place</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>place</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>場所</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>シソーラス</t>
         </is>
       </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>タイトル</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
         <is>
           <t>NASA / GCMD Location Keywords Version 8.6</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>NASA / GCMD Location Keywords Version 8.6</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n"/>
-      <c r="B43" s="1" t="n"/>
-      <c r="C43" s="1" t="n"/>
-      <c r="D43" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>場所</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>シソーラス</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
         <is>
           <t>2018-03-15</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>2018-03-15</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n"/>
-      <c r="B44" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>プロジェクト</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>値</t>
         </is>
       </c>
-      <c r="D44" s="1" t="inlineStr"/>
-      <c r="E44" s="1" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
         <is>
           <t>JARE</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>JARE</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="n"/>
-      <c r="C45" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>プロジェクト</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>コード</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>project</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>project</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>プロジェクト</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>シソーラス</t>
         </is>
       </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>タイトル</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
         <is>
           <t>NASA / GCMD Project Keywords Version 8.6</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>NASA / GCMD Project Keywords Version 8.6</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="n"/>
-      <c r="C46" s="1" t="n"/>
-      <c r="D46" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>プロジェクト</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>シソーラス</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
         <is>
           <t>2018-03-15</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>2018-03-15</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>キーワード</t>
         </is>
       </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t>値_0</t>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr"/>
-      <c r="E47" s="1" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>値</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
         <is>
           <t>keyword1</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>keyword2-1</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n"/>
-      <c r="B48" s="1" t="n"/>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t>値_1</t>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr"/>
-      <c r="E48" s="1" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>キーワード</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>値</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
         <is>
           <t>keyword2</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>keyword2-2</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n"/>
-      <c r="B49" s="1" t="n"/>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t>値_2</t>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr"/>
-      <c r="E49" s="1" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>キーワード</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>値</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
         <is>
           <t>keyword3</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>keyword2-3</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>利用方法</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>値</t>
         </is>
       </c>
-      <c r="D50" s="1" t="inlineStr"/>
-      <c r="E50" s="1" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
         <is>
           <t>Please contact.</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>Please contact.</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>言語</t>
         </is>
       </c>
-      <c r="C51" s="1" t="inlineStr"/>
-      <c r="D51" s="1" t="inlineStr"/>
-      <c r="E51" s="1" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
         <is>
           <t>eng</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>eng</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n"/>
-      <c r="B52" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>文字コード</t>
         </is>
       </c>
-      <c r="C52" s="1" t="inlineStr"/>
-      <c r="D52" s="1" t="inlineStr"/>
-      <c r="E52" s="1" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
         <is>
           <t>utf8</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>utf8</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>カテゴリー</t>
         </is>
       </c>
-      <c r="C53" s="1" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>値</t>
         </is>
       </c>
-      <c r="D53" s="1" t="inlineStr"/>
-      <c r="E53" s="1" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
         <is>
           <t>biota</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>geoscience</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n"/>
-      <c r="B54" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>取得範囲</t>
         </is>
       </c>
-      <c r="C54" s="1" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>場所</t>
         </is>
       </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>西側境界</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
         <is>
           <t>130.0</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>130.0</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n"/>
-      <c r="B55" s="1" t="n"/>
-      <c r="C55" s="1" t="n"/>
-      <c r="D55" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>取得範囲</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>場所</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>東側境界</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
         <is>
           <t>140.0</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>140.0</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="n"/>
-      <c r="C56" s="1" t="n"/>
-      <c r="D56" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>取得範囲</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>場所</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>南側境界</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
         <is>
           <t>30.0</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>30.0</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n"/>
-      <c r="B57" s="1" t="n"/>
-      <c r="C57" s="1" t="n"/>
-      <c r="D57" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>取得範囲</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>場所</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>北側境界</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
         <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>40.0</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n"/>
-      <c r="B58" s="1" t="n"/>
-      <c r="C58" s="1" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>取得範囲</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
         <is>
           <t>日時</t>
         </is>
       </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>開始日時</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
         <is>
           <t>1961-12-22T00:00:00</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>1961-12-22T00:00:00</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n"/>
-      <c r="B59" s="1" t="n"/>
-      <c r="C59" s="1" t="n"/>
-      <c r="D59" s="1" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>データ情報</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>取得範囲</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>日時</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>終了日時</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
         <is>
           <t>1961-12-22T23:59:59</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>1961-12-22T23:59:59</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>配布情報</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>フォーマット</t>
         </is>
       </c>
-      <c r="C60" s="1" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>名前</t>
         </is>
       </c>
-      <c r="D60" s="1" t="inlineStr"/>
-      <c r="E60" s="1" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
         <is>
           <t>Specimen</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>Specimen</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n"/>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>オンライン情報</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>配布情報</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>オンライン</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="D61" s="1" t="inlineStr"/>
-      <c r="E61" s="1" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
         <is>
           <t>https://homepage</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>https://homepage</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n"/>
-      <c r="B62" s="1" t="n"/>
-      <c r="C62" s="1" t="inlineStr">
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>配布情報</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>オンライン</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
         <is>
           <t>名前</t>
         </is>
       </c>
-      <c r="D62" s="1" t="inlineStr"/>
-      <c r="E62" s="1" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
         <is>
           <t>website</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>website</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n"/>
-      <c r="B63" s="1" t="n"/>
-      <c r="C63" s="1" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>配布情報</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>オンライン</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
         <is>
           <t>説明</t>
         </is>
       </c>
-      <c r="D63" s="1" t="inlineStr"/>
-      <c r="E63" s="1" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
         <is>
           <t>hogehoge.</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>hogehoge.</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>データ処理状態</t>
         </is>
       </c>
-      <c r="B64" s="1" t="inlineStr">
-        <is>
-          <t>種別</t>
-        </is>
-      </c>
-      <c r="C64" s="1" t="inlineStr"/>
-      <c r="D64" s="1" t="inlineStr"/>
-      <c r="E64" s="1" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>コード</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
         <is>
           <t>dataset</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>dataset</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n"/>
-      <c r="B65" s="1" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>データ処理状態</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>処理状態</t>
         </is>
       </c>
-      <c r="C65" s="1" t="inlineStr"/>
-      <c r="D65" s="1" t="inlineStr"/>
-      <c r="E65" s="1" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
         <is>
           <t>Raw</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>Raw</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="C31:C37"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="B11:B20"/>
-    <mergeCell ref="A21:A59"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="B27:B37"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/examples/output/table.xlsx
+++ b/examples/output/table.xlsx
@@ -612,11 +612,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>XML作成者</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
           <t>組織名</t>
@@ -637,11 +633,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>XML作成者</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
           <t>職名</t>
@@ -654,11 +646,7 @@
       <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>XML作成者</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
           <t>連絡先</t>
@@ -683,16 +671,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>XML作成者</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>連絡先</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>住所</t>
@@ -716,21 +696,9 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>XML作成者</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>連絡先</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>住所</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
           <t>市町村</t>
@@ -749,21 +717,9 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>XML作成者</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>連絡先</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>住所</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
           <t>都道府県</t>
@@ -782,21 +738,9 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>XML作成者</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>連絡先</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>住所</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
           <t>郵便番号</t>
@@ -815,21 +759,9 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>XML作成者</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>連絡先</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>住所</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
           <t>国</t>
@@ -848,21 +780,9 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>XML作成者</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>連絡先</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>住所</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
           <t>メールアドレス</t>
@@ -881,16 +801,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>XML作成者</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>連絡先</t>
-        </is>
-      </c>
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>オンライン</t>
@@ -914,21 +826,9 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>XML作成者</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>連絡先</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>オンライン</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
           <t>名前</t>
@@ -947,21 +847,9 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>XML作成者</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>連絡先</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>オンライン</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
           <t>説明</t>
@@ -1009,16 +897,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>引用</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>作成日</t>
@@ -1042,21 +922,9 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>引用</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>作成日</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
           <t>コード</t>
@@ -1075,16 +943,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>引用</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>公開日</t>
@@ -1108,21 +968,9 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>引用</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>公開日</t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
           <t>コード</t>
@@ -1141,16 +989,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>引用</t>
-        </is>
-      </c>
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>バージョン</t>
@@ -1170,16 +1010,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>引用</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>ID</t>
@@ -1199,11 +1031,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
           <t>概要</t>
@@ -1224,11 +1052,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
           <t>管理者</t>
@@ -1253,16 +1077,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>管理者</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>組織名</t>
@@ -1282,16 +1098,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>管理者</t>
-        </is>
-      </c>
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>職名</t>
@@ -1303,16 +1111,8 @@
       <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>管理者</t>
-        </is>
-      </c>
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>役割</t>
@@ -1332,16 +1132,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>管理者</t>
-        </is>
-      </c>
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>連絡先</t>
@@ -1365,21 +1157,9 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>管理者</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>連絡先</t>
-        </is>
-      </c>
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
           <t>住所</t>
@@ -1402,26 +1182,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>管理者</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>連絡先</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>住所</t>
-        </is>
-      </c>
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>市町村</t>
@@ -1439,26 +1203,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>管理者</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>連絡先</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>住所</t>
-        </is>
-      </c>
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>都道府県</t>
@@ -1476,26 +1224,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>管理者</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>連絡先</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>住所</t>
-        </is>
-      </c>
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>郵便番号</t>
@@ -1513,26 +1245,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>管理者</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>連絡先</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>住所</t>
-        </is>
-      </c>
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>国</t>
@@ -1550,26 +1266,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>管理者</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>連絡先</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>住所</t>
-        </is>
-      </c>
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
           <t>メールアドレス</t>
@@ -1587,11 +1287,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
+      <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
           <t>分野</t>
@@ -1616,16 +1312,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>分野</t>
-        </is>
-      </c>
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>コード</t>
@@ -1645,16 +1333,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>分野</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>シソーラス</t>
@@ -1678,21 +1358,9 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>分野</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>シソーラス</t>
-        </is>
-      </c>
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
           <t>日付</t>
@@ -1711,11 +1379,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
+      <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
           <t>場所</t>
@@ -1740,16 +1404,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>場所</t>
-        </is>
-      </c>
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>コード</t>
@@ -1769,16 +1425,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>場所</t>
-        </is>
-      </c>
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>シソーラス</t>
@@ -1802,21 +1450,9 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>場所</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>シソーラス</t>
-        </is>
-      </c>
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
           <t>日付</t>
@@ -1835,11 +1471,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
+      <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
           <t>プロジェクト</t>
@@ -1864,16 +1496,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>プロジェクト</t>
-        </is>
-      </c>
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>コード</t>
@@ -1893,16 +1517,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>プロジェクト</t>
-        </is>
-      </c>
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>シソーラス</t>
@@ -1926,21 +1542,9 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>プロジェクト</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>シソーラス</t>
-        </is>
-      </c>
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
           <t>日付</t>
@@ -1959,11 +1563,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
+      <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
           <t>キーワード</t>
@@ -1988,16 +1588,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>キーワード</t>
-        </is>
-      </c>
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>値</t>
@@ -2017,16 +1609,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>キーワード</t>
-        </is>
-      </c>
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>値</t>
@@ -2046,11 +1630,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
           <t>利用方法</t>
@@ -2075,11 +1655,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
+      <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
           <t>言語</t>
@@ -2100,11 +1676,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
+      <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
           <t>文字コード</t>
@@ -2125,11 +1697,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
+      <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
           <t>カテゴリー</t>
@@ -2154,11 +1722,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
+      <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
           <t>取得範囲</t>
@@ -2187,21 +1751,9 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>取得範囲</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>場所</t>
-        </is>
-      </c>
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
           <t>東側境界</t>
@@ -2220,21 +1772,9 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>取得範囲</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>場所</t>
-        </is>
-      </c>
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
           <t>南側境界</t>
@@ -2253,21 +1793,9 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>取得範囲</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>場所</t>
-        </is>
-      </c>
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
           <t>北側境界</t>
@@ -2286,16 +1814,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>取得範囲</t>
-        </is>
-      </c>
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>日時</t>
@@ -2319,21 +1839,9 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>データ情報</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>取得範囲</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>日時</t>
-        </is>
-      </c>
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
           <t>終了日時</t>
@@ -2381,11 +1889,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>配布情報</t>
-        </is>
-      </c>
+      <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
           <t>オンライン</t>
@@ -2410,16 +1914,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>配布情報</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>オンライン</t>
-        </is>
-      </c>
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>名前</t>
@@ -2439,16 +1935,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>配布情報</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>オンライン</t>
-        </is>
-      </c>
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>説明</t>
@@ -2493,11 +1981,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>データ処理状態</t>
-        </is>
-      </c>
+      <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
           <t>処理状態</t>

--- a/examples/output/table.xlsx
+++ b/examples/output/table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -904,11 +904,7 @@
           <t>作成日</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>日付</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
@@ -924,21 +920,21 @@
     <row r="23">
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>コード</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>公開日</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>creation</t>
+          <t>2019-02-28</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>creation</t>
+          <t>2019-02-28</t>
         </is>
       </c>
     </row>
@@ -947,153 +943,141 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>公開日</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>日付</t>
-        </is>
-      </c>
+          <t>バージョン</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2019-02-28</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2019-02-28</t>
+          <t>1.00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>コード</t>
-        </is>
-      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>publication</t>
+          <t>Resource ID</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>publication</t>
+          <t>Resource ID2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>バージョン</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>概要</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>hogehoge. fuga. piyo.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>hogehoge. fuga. piyo. 2</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>管理者</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>名前</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Resource ID</t>
+          <t>Hanako Yamada</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Resource ID2</t>
+          <t>Hanako Yamada2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>概要</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>組織名</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>hogehoge. fuga. piyo.</t>
+          <t>hoge</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>hogehoge. fuga. piyo. 2</t>
+          <t>hoge</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>管理者</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>名前</t>
+          <t>職名</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Hanako Yamada</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Hanako Yamada2</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>組織名</t>
+          <t>役割</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>hoge</t>
+          <t>pointOfContact</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>hoge</t>
+          <t>pointOfContact</t>
         </is>
       </c>
     </row>
@@ -1102,57 +1086,69 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>職名</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>連絡先</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>電話番号</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>123-4567</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>123-4567</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>役割</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>住所</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>番地</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>pointOfContact</t>
+          <t>1choume</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>pointOfContact</t>
+          <t>1choume</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>連絡先</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>電話番号</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>市町村</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>123-4567</t>
+          <t>hoge</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>123-4567</t>
+          <t>hoge</t>
         </is>
       </c>
     </row>
@@ -1160,24 +1156,20 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>住所</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>番地</t>
+          <t>都道府県</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1choume</t>
+          <t>fuga</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1choume</t>
+          <t>fuga</t>
         </is>
       </c>
     </row>
@@ -1188,17 +1180,17 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>市町村</t>
+          <t>郵便番号</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>hoge</t>
+          <t>123-4567</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>hoge</t>
+          <t>123-4567</t>
         </is>
       </c>
     </row>
@@ -1209,17 +1201,17 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>都道府県</t>
+          <t>国</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>fuga</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>fuga</t>
+          <t>Japan</t>
         </is>
       </c>
     </row>
@@ -1230,105 +1222,113 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>郵便番号</t>
+          <t>メールアドレス</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>123-4567</t>
+          <t>hoge@hoge</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>123-4567</t>
+          <t>hoge@hoge</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>分野</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>値</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>国</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Earth Science &gt; Biosphere  &gt; Ecosystems</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Solid Earth &gt; Rocks/Minerals &gt; Meteorites</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>メールアドレス</t>
-        </is>
-      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>シソーラス</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>タイトル</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>hoge@hoge</t>
+          <t>NASA / GCMD Science Keywords Version 8.6</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>hoge@hoge</t>
+          <t>NASA / GCMD Science Keywords Version 8.6</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>分野</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>値</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>日付</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Earth Science &gt; Biosphere  &gt; Ecosystems</t>
+          <t>2018-03-15</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Solid Earth &gt; Rocks/Minerals &gt; Meteorites</t>
+          <t>2018-03-15</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>場所</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>コード</t>
+          <t>値</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>discipline</t>
+          <t>Continent &gt; Antarctica</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>discipline</t>
+          <t>Continent &gt; Antarctica</t>
         </is>
       </c>
     </row>
@@ -1348,12 +1348,12 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>NASA / GCMD Science Keywords Version 8.6</t>
+          <t>NASA / GCMD Location Keywords Version 8.6</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>NASA / GCMD Science Keywords Version 8.6</t>
+          <t>NASA / GCMD Location Keywords Version 8.6</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>場所</t>
+          <t>プロジェクト</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1394,12 +1394,12 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Continent &gt; Antarctica</t>
+          <t>JARE</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Continent &gt; Antarctica</t>
+          <t>JARE</t>
         </is>
       </c>
     </row>
@@ -1408,75 +1408,75 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>コード</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>シソーラス</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>タイトル</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>NASA / GCMD Project Keywords Version 8.6</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>NASA / GCMD Project Keywords Version 8.6</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>シソーラス</t>
-        </is>
-      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>タイトル</t>
+          <t>日付</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>NASA / GCMD Location Keywords Version 8.6</t>
+          <t>2018-03-15</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>NASA / GCMD Location Keywords Version 8.6</t>
+          <t>2018-03-15</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>日付</t>
-        </is>
-      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>キーワード</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>値</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2018-03-15</t>
+          <t>keyword1-1</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2018-03-15</t>
+          <t>keyword2-1</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>プロジェクト</t>
-        </is>
-      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>値</t>
@@ -1486,12 +1486,12 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>JARE</t>
+          <t>keyword1-2</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>JARE</t>
+          <t>keyword2-2</t>
         </is>
       </c>
     </row>
@@ -1500,65 +1500,65 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>コード</t>
+          <t>値</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>keyword1-3</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>keyword2-3</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>利用方法</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>シソーラス</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>タイトル</t>
-        </is>
-      </c>
+          <t>値</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>NASA / GCMD Project Keywords Version 8.6</t>
+          <t>Please contact.</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>NASA / GCMD Project Keywords Version 8.6</t>
+          <t>Please contact.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>言語</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>日付</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2018-03-15</t>
+          <t>eng</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2018-03-15</t>
+          <t>eng</t>
         </is>
       </c>
     </row>
@@ -1566,30 +1566,30 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>キーワード</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>値</t>
-        </is>
-      </c>
+          <t>文字コード</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>keyword1</t>
+          <t>utf8</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>keyword2-1</t>
+          <t>utf8</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>カテゴリー</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr">
         <is>
           <t>値</t>
@@ -1599,217 +1599,225 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>keyword2</t>
+          <t>biota</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>keyword2-2</t>
+          <t>geoscience</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>取得範囲</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>値</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>場所</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>西側境界</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>keyword3</t>
+          <t>130.0</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>keyword2-3</t>
+          <t>130.0</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>利用方法</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>値</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>東側境界</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Please contact.</t>
+          <t>140.0</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Please contact.</t>
+          <t>140.0</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>言語</t>
-        </is>
-      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>南側境界</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>eng</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>eng</t>
+          <t>30.0</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>文字コード</t>
-        </is>
-      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>北側境界</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>utf8</t>
+          <t>40.0</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>カテゴリー</t>
-        </is>
-      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>値</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>日時</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>開始日時</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>biota</t>
+          <t>1961-12-22T00:00:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>geoscience</t>
+          <t>1961-12-22T00:00:00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>取得範囲</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>場所</t>
-        </is>
-      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>西側境界</t>
+          <t>終了日時</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>130.0</t>
+          <t>1961-12-22T23:59:59</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>130.0</t>
+          <t>1961-12-22T23:59:59</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>東側境界</t>
-        </is>
-      </c>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>配布情報</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>フォーマット</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>140.0</t>
+          <t>Specimen</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>140.0</t>
+          <t>Specimen</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>南側境界</t>
-        </is>
-      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>オンライン</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>https://homepage</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>https://homepage</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>北側境界</t>
-        </is>
-      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>website</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>website</t>
         </is>
       </c>
     </row>
@@ -1818,184 +1826,63 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>日時</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>開始日時</t>
-        </is>
-      </c>
+          <t>説明</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1961-12-22T00:00:00</t>
+          <t>hogehoge.</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1961-12-22T00:00:00</t>
+          <t>hogehoge.</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr"/>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>データ処理状態</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>種別</t>
+        </is>
+      </c>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>終了日時</t>
-        </is>
-      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1961-12-22T23:59:59</t>
+          <t>dataset</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1961-12-22T23:59:59</t>
+          <t>dataset</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>配布情報</t>
-        </is>
-      </c>
+      <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>フォーマット</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>名前</t>
-        </is>
-      </c>
+          <t>処理状態</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Specimen</t>
+          <t>Raw</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
-        <is>
-          <t>Specimen</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>オンライン</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>https://homepage</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>https://homepage</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>名前</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>website</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>website</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>説明</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>hogehoge.</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>hogehoge.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>データ処理状態</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>コード</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>dataset</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>dataset</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>処理状態</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Raw</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
         <is>
           <t>Raw</t>
         </is>
